--- a/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7681984853225737</v>
+        <v>0.7681984853225734</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.758282135102011</v>
+        <v>0.7582821351020111</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7634909144352083</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6955881124713532</v>
+        <v>0.6930483163616508</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6955357477952077</v>
+        <v>0.6888336420620766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7179253689257001</v>
+        <v>0.7169698757066433</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8302022090432327</v>
+        <v>0.828522922566167</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8175990998511048</v>
+        <v>0.8123297686073327</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8110972389268247</v>
+        <v>0.8096384506486877</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7124296721766116</v>
+        <v>0.7124296721766117</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6958411386866745</v>
+        <v>0.6958411386866743</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.7039797644882909</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6468233688596003</v>
+        <v>0.6487849677869755</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6484075632146016</v>
+        <v>0.6506964950538348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.663260539519348</v>
+        <v>0.6675387049312984</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7617907437654508</v>
+        <v>0.7612896015183358</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7363051703095527</v>
+        <v>0.7383772513896585</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7360619198633805</v>
+        <v>0.7369953876070939</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7046899015623804</v>
+        <v>0.7046899015623802</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6421937229434239</v>
+        <v>0.6421937229434238</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6734219126440222</v>
+        <v>0.6734219126440221</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6658376639856486</v>
+        <v>0.6683056868449335</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6109341370772727</v>
+        <v>0.6105785824080254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6465822496218617</v>
+        <v>0.6468271930238466</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.744566457760262</v>
+        <v>0.7465863672254271</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6769161157588289</v>
+        <v>0.6784225623879134</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6996315873942593</v>
+        <v>0.6987659356140411</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7001344022593936</v>
+        <v>0.7001344022593933</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.6436607602827166</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6616209564239508</v>
+        <v>0.6644711386442846</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6153549964177856</v>
+        <v>0.6134434920574442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6470872120453098</v>
+        <v>0.6452547693179392</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7362922850519985</v>
+        <v>0.7357406696343193</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6736312938058125</v>
+        <v>0.6708672052030881</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6933332188147278</v>
+        <v>0.6925673289973159</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.6927974217893673</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7076966111849711</v>
+        <v>0.7076966111849712</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.7001646272667992</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6515590000454783</v>
+        <v>0.6560053258172074</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6811735326623154</v>
+        <v>0.6784003959857309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6724583408319653</v>
+        <v>0.6765182150400709</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7237974267392643</v>
+        <v>0.7299771464420745</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7382608327951797</v>
+        <v>0.7410290995058436</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.722052874864703</v>
+        <v>0.7227147644511109</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.6887492946259608</v>
+        <v>0.6887492946259609</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.7101419544941078</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6491956927819302</v>
+        <v>0.6463584156172405</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6762735966881348</v>
+        <v>0.6750690553164388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6743934665416368</v>
+        <v>0.6723426655654273</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7282039336937968</v>
+        <v>0.7275622980218843</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.740322396817263</v>
+        <v>0.7423806903099409</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7247291371552927</v>
+        <v>0.7266727725122247</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.7117691519448092</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6597466711420642</v>
+        <v>0.6597466711420641</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6813079651467918</v>
+        <v>0.6813079651467919</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6655136034984711</v>
+        <v>0.6610205728536026</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6231768663222483</v>
+        <v>0.6219890923155501</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6504897137743212</v>
+        <v>0.6501824253522573</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.762664813156416</v>
+        <v>0.7576585363629967</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6985096788844554</v>
+        <v>0.6929908755299644</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7091840401465975</v>
+        <v>0.7122527089749372</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.70851186009955</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.6815887048239775</v>
+        <v>0.6815887048239776</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.6947354248523753</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6911009577488303</v>
+        <v>0.6916231463110815</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6675550251006589</v>
+        <v>0.6660591081245371</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.683884451604032</v>
+        <v>0.6838369884916855</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.726895837210774</v>
+        <v>0.7234953790210171</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6956123541035906</v>
+        <v>0.6944192697372971</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7057280274815497</v>
+        <v>0.7063980821223164</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>246923</v>
+        <v>246021</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>223146</v>
+        <v>220996</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>485181</v>
+        <v>484535</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>294709</v>
+        <v>294112</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>262307</v>
+        <v>260617</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>548148</v>
+        <v>547162</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>283840</v>
+        <v>284701</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>295418</v>
+        <v>296461</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>593238</v>
+        <v>597065</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>334291</v>
+        <v>334071</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>335465</v>
+        <v>336409</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>658354</v>
+        <v>659189</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>386380</v>
+        <v>387812</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>354972</v>
+        <v>354765</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>750891</v>
+        <v>751175</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>432066</v>
+        <v>433238</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>393309</v>
+        <v>394185</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>812498</v>
+        <v>811493</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>425341</v>
+        <v>427173</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>422474</v>
+        <v>421162</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>860258</v>
+        <v>857822</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>473345</v>
+        <v>472991</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>462484</v>
+        <v>460587</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>921739</v>
+        <v>920720</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>369016</v>
+        <v>371534</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>377348</v>
+        <v>375811</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>753372</v>
+        <v>757920</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>409928</v>
+        <v>413428</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>408972</v>
+        <v>410506</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>808934</v>
+        <v>809675</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>238152</v>
+        <v>237111</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>269635</v>
+        <v>269155</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>516280</v>
+        <v>514710</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>267135</v>
+        <v>266900</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>295172</v>
+        <v>295992</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>554814</v>
+        <v>556302</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>172898</v>
+        <v>171731</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>228726</v>
+        <v>228290</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>407745</v>
+        <v>407553</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>198137</v>
+        <v>196837</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>256375</v>
+        <v>254350</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>444536</v>
+        <v>446460</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2218413</v>
+        <v>2220089</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2245470</v>
+        <v>2240438</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4495646</v>
+        <v>4495334</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2333313</v>
+        <v>2322398</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2339847</v>
+        <v>2335834</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>4639239</v>
+        <v>4643643</v>
       </c>
     </row>
     <row r="36">
